--- a/Лаба2/Ч и Б Я Задание 2.xlsx
+++ b/Лаба2/Ч и Б Я Задание 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\projects\VSprojects\Лаба1\Лаба2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0728DF8-B35F-4967-AB70-1C2DD3530F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6B1FD6-1CD4-4584-A6BD-0528EF00E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,9 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -540,18 +537,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,12 +560,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -593,9 +572,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +595,33 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +948,7 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -970,33 +973,33 @@
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="13"/>
@@ -1009,19 +1012,19 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
@@ -1037,19 +1040,19 @@
       <c r="G5" s="9"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
@@ -1071,71 +1074,71 @@
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1154,19 +1157,19 @@
       <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1184,19 +1187,19 @@
       <c r="G10" s="9"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1214,67 +1217,67 @@
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
     </row>
     <row r="13" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="13"/>
@@ -1287,19 +1290,19 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1319,22 +1322,22 @@
       <c r="G15" s="9"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="27"/>
@@ -1349,71 +1352,71 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1424,23 +1427,23 @@
       <c r="E19" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="51"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="12"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1460,19 +1463,19 @@
       <c r="G20" s="9"/>
       <c r="H20" s="12"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -1486,75 +1489,75 @@
       <c r="E21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
     </row>
     <row r="23" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -1575,22 +1578,22 @@
       <c r="G24" s="26"/>
       <c r="H24" s="12"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="39"/>
+      <c r="N24" s="38"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1611,19 +1614,19 @@
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
     </row>
     <row r="26" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -1639,19 +1642,19 @@
       <c r="G26" s="9"/>
       <c r="H26" s="12"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
@@ -1667,19 +1670,19 @@
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
@@ -1691,19 +1694,19 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -1711,19 +1714,19 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1735,19 +1738,19 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -1759,19 +1762,19 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
@@ -1783,19 +1786,19 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -1807,19 +1810,19 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -1831,19 +1834,19 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
@@ -1857,17 +1860,17 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="12"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -1881,17 +1884,17 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
       <c r="N36" s="12"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
@@ -1905,17 +1908,17 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
       <c r="N37" s="12"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -1929,17 +1932,17 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
       <c r="N38" s="12"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -1959,11 +1962,11 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1977,17 +1980,17 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="12"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -2001,17 +2004,17 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -2028,14 +2031,14 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
@@ -2049,17 +2052,17 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -2073,17 +2076,17 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
@@ -2094,20 +2097,20 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="39"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
@@ -2118,20 +2121,20 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="39"/>
+      <c r="I46" s="38"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
@@ -2142,20 +2145,20 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="39"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -2358,17 +2361,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1483F46-5E3C-4C73-A792-449D9BD2EBD6}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="C22:D22"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2378,46 +2381,46 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="68" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="67" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -2426,53 +2429,57 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="52" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="67" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="70"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="54" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -2481,57 +2488,61 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="67" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+    </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="52" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="67" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -2540,55 +2551,60 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="68" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="59" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="70"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+    </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="61">
         <v>0</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="56" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2612,15 +2628,15 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="12"/>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,28 +2656,28 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9487517-4A4D-459B-B081-2C6EE1AD188A}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2704,7 +2720,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="18">
@@ -2743,7 +2759,7 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -2783,7 +2799,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="18">
@@ -2823,7 +2839,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -2864,7 +2880,7 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -2904,7 +2920,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -2944,7 +2960,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -2984,23 +3000,23 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3059,13 +3075,13 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
+      <c r="B23" s="38"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
+      <c r="B25" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
